--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1083,10 +1095,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1130,28 +1142,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1176,28 +1188,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1256,10 +1268,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1303,28 +1315,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="2">
+      <c r="C41" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1349,28 +1361,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="2">
+      <c r="I43" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1516,10 +1528,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1563,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1609,28 +1621,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2007,10 +2019,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2054,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2100,28 +2112,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2180,10 +2192,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2227,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2273,28 +2285,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2365,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2412,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2458,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2613,10 +2625,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2660,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2706,28 +2718,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2885,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2920,28 +2932,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2978,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3046,10 +3058,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3093,28 +3105,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3139,28 +3151,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3219,10 +3231,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3266,28 +3278,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3312,28 +3324,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3462,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3497,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3555,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3652,10 +3664,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3699,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3745,28 +3757,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3941,10 +3953,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="2" t="s">
+      <c r="J132" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3988,28 +4000,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="2">
+      <c r="C134" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4034,28 +4046,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4114,10 +4126,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4161,28 +4173,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4207,28 +4219,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4287,10 +4299,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4334,28 +4346,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4380,28 +4392,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4472,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4507,28 +4519,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4565,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4662,10 +4674,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4709,28 +4721,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4755,28 +4767,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4847,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4894,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4940,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5049,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5096,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5142,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5383,10 +5395,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5430,28 +5442,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5476,28 +5488,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5556,10 +5568,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5603,28 +5615,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5649,28 +5661,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5758,10 +5770,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5805,28 +5817,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5851,28 +5863,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5989,10 +6001,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6036,28 +6048,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6082,28 +6094,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6162,10 +6174,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6209,28 +6221,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6255,28 +6267,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6393,10 +6405,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6440,28 +6452,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6486,28 +6498,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6566,10 +6578,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6613,28 +6625,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6659,28 +6671,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6855,10 +6867,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6902,28 +6914,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6948,28 +6960,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7028,10 +7040,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7075,28 +7087,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7121,28 +7133,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7230,10 +7242,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7277,28 +7289,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7323,28 +7335,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7432,10 +7444,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7479,28 +7491,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7525,28 +7537,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7663,10 +7675,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7710,28 +7722,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7756,28 +7768,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7865,10 +7877,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7912,28 +7924,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7958,28 +7970,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8038,10 +8050,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8085,28 +8097,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8131,28 +8143,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8211,10 +8223,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8258,28 +8270,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8304,28 +8316,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8384,10 +8396,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8431,28 +8443,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8477,28 +8489,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8615,10 +8627,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8662,28 +8674,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8708,28 +8720,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8846,10 +8858,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8893,28 +8905,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8939,28 +8951,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9019,10 +9031,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9066,28 +9078,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9112,28 +9124,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9192,10 +9204,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9239,28 +9251,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9285,28 +9297,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9394,10 +9406,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9441,28 +9453,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9487,28 +9499,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9625,10 +9637,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9672,28 +9684,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9718,28 +9730,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9827,10 +9839,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10344" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -691,10 +739,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -738,28 +786,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="4">
+      <c r="A21" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="4">
+      <c r="C21" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="4">
+      <c r="E21" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="4">
+      <c r="F21" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="4">
+      <c r="G21" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="4">
+      <c r="H21" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -784,28 +832,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="4">
+      <c r="B23" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="4">
+      <c r="D23" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="4">
+      <c r="E23" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="4">
+      <c r="F23" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="4">
+      <c r="G23" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="4">
+      <c r="H23" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="4">
+      <c r="I23" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -922,10 +970,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="J27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -969,28 +1017,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="4">
+      <c r="A29" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="4">
+      <c r="C29" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="4">
+      <c r="E29" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="4">
+      <c r="F29" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="4">
+      <c r="G29" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="4">
+      <c r="H29" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1015,28 +1063,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="4">
+      <c r="C31" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="4">
+      <c r="D31" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="4">
+      <c r="I31" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1095,10 +1143,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1142,28 +1190,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="4">
+      <c r="A35" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="4">
+      <c r="C35" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1188,28 +1236,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="4">
+      <c r="C37" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="4">
+      <c r="D37" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="4">
+      <c r="I37" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1268,10 +1316,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="4" t="s">
+      <c r="J39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1315,28 +1363,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="4">
+      <c r="A41" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="4">
+      <c r="B41" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="4">
+      <c r="C41" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="4">
+      <c r="E41" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="4">
+      <c r="F41" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="4">
+      <c r="G41" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="4">
+      <c r="H41" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1361,28 +1409,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="4">
+      <c r="I43" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1528,10 +1576,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1575,28 +1623,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1621,28 +1669,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1788,10 +1836,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1835,28 +1883,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1881,28 +1929,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2019,10 +2067,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="J65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2066,28 +2114,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="4">
+      <c r="A67" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="4">
+      <c r="C67" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2112,28 +2160,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="4">
+      <c r="B69" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C69" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="4">
+      <c r="D69" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="4">
+      <c r="E69" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="4">
+      <c r="F69" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="4">
+      <c r="G69" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="4">
+      <c r="H69" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="4">
+      <c r="I69" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2192,10 +2240,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2239,28 +2287,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="4">
+      <c r="C73" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2285,28 +2333,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2365,10 +2413,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="4" t="s">
+      <c r="J77" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2412,28 +2460,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="4">
+      <c r="A79" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="4">
+      <c r="C79" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2458,28 +2506,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="4">
+      <c r="C81" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="4">
+      <c r="D81" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="4">
+      <c r="I81" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2625,10 +2673,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="4" t="s">
+      <c r="J86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2672,28 +2720,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="4">
+      <c r="A88" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="4">
+      <c r="B88" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="4">
+      <c r="C88" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="4">
+      <c r="E88" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="4">
+      <c r="F88" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="4">
+      <c r="G88" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="4">
+      <c r="H88" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2718,28 +2766,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="4">
+      <c r="C90" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="4">
+      <c r="D90" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="4">
+      <c r="I90" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2885,10 +2933,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2932,28 +2980,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2978,28 +3026,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3058,10 +3106,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="4" t="s">
+      <c r="J101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3105,28 +3153,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="4">
+      <c r="C103" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3151,28 +3199,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="4">
+      <c r="I105" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3231,10 +3279,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="4" t="s">
+      <c r="J107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3278,28 +3326,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="4">
+      <c r="A109" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="4">
+      <c r="C109" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3324,28 +3372,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="4">
+      <c r="I111" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3462,10 +3510,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="4" t="s">
+      <c r="J115" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3509,28 +3557,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="4">
+      <c r="A117" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="4">
+      <c r="C117" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3555,28 +3603,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="4">
+      <c r="C119" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="4">
+      <c r="D119" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="4">
+      <c r="I119" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3664,10 +3712,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="4" t="s">
+      <c r="J122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3711,28 +3759,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="4">
+      <c r="C124" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3757,28 +3805,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="4">
+      <c r="I126" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3953,10 +4001,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="4" t="s">
+      <c r="J132" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4000,28 +4048,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="4">
+      <c r="A134" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="4">
+      <c r="B134" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="4">
+      <c r="C134" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="4">
+      <c r="E134" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="4">
+      <c r="F134" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="4">
+      <c r="G134" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="4">
+      <c r="H134" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4046,28 +4094,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="4">
+      <c r="I136" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4126,10 +4174,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4173,28 +4221,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4219,28 +4267,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4299,10 +4347,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4346,28 +4394,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4392,28 +4440,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4472,10 +4520,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4519,28 +4567,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4565,28 +4613,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4674,10 +4722,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="4" t="s">
+      <c r="J157" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4721,28 +4769,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="4">
+      <c r="A159" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="4">
+      <c r="B159" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="4">
+      <c r="C159" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="4">
+      <c r="E159" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="4">
+      <c r="F159" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="4">
+      <c r="G159" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="4">
+      <c r="H159" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4767,28 +4815,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="4">
+      <c r="C161" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="4">
+      <c r="D161" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="4">
+      <c r="I161" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4847,10 +4895,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="4" t="s">
+      <c r="J163" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4894,28 +4942,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="4">
+      <c r="C165" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4940,28 +4988,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="4">
+      <c r="I167" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5049,10 +5097,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5096,28 +5144,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5142,28 +5190,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5222,10 +5270,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5269,28 +5317,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5315,28 +5363,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5395,10 +5443,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5442,28 +5490,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5488,28 +5536,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5568,10 +5616,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5615,28 +5663,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5661,28 +5709,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5770,10 +5818,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5817,28 +5865,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5863,28 +5911,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6001,10 +6049,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6048,28 +6096,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6094,28 +6142,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6174,10 +6222,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="4" t="s">
+      <c r="J209" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6221,28 +6269,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="4">
+      <c r="A211" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="4">
+      <c r="C211" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6267,28 +6315,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="4">
+      <c r="B213" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="4">
+      <c r="C213" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="4">
+      <c r="D213" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="4">
+      <c r="E213" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="4">
+      <c r="F213" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="4">
+      <c r="G213" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="4">
+      <c r="H213" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="4">
+      <c r="I213" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6405,10 +6453,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6452,28 +6500,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6498,28 +6546,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6578,10 +6626,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6625,28 +6673,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6671,28 +6719,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6867,10 +6915,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="4" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6914,28 +6962,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="4">
+      <c r="C235" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6960,28 +7008,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="4">
+      <c r="I237" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7040,10 +7088,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="4" t="s">
+      <c r="J239" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7087,28 +7135,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="4">
+      <c r="A241" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="4">
+      <c r="C241" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7133,28 +7181,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="4">
+      <c r="C243" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="4">
+      <c r="D243" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="4">
+      <c r="I243" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7242,10 +7290,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="4" t="s">
+      <c r="J246" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7289,28 +7337,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="4">
+      <c r="A248" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="4">
+      <c r="C248" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7335,28 +7383,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="4">
+      <c r="C250" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="4">
+      <c r="D250" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="4">
+      <c r="I250" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7444,10 +7492,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="4" t="s">
+      <c r="J253" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7491,28 +7539,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="4">
+      <c r="A255" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="4">
+      <c r="C255" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7537,28 +7585,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C257" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="4">
+      <c r="D257" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="4">
+      <c r="I257" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7675,10 +7723,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7722,28 +7770,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="4">
+      <c r="A263" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="4">
+      <c r="B263" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="4">
+      <c r="C263" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="4">
+      <c r="G263" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="4">
+      <c r="H263" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7768,28 +7816,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="4">
+      <c r="C265" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="4">
+      <c r="D265" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="4">
+      <c r="I265" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7877,10 +7925,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="4" t="s">
+      <c r="J268" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7924,28 +7972,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="4">
+      <c r="A270" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="4">
+      <c r="C270" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7970,28 +8018,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="4">
+      <c r="C272" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="4">
+      <c r="D272" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="4">
+      <c r="I272" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8050,10 +8098,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="4" t="s">
+      <c r="J274" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8097,28 +8145,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="4">
+      <c r="A276" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="4">
+      <c r="C276" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8143,28 +8191,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="4">
+      <c r="B278" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="4">
+      <c r="C278" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="4">
+      <c r="D278" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="4">
+      <c r="E278" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="4">
+      <c r="F278" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="4">
+      <c r="G278" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="4">
+      <c r="H278" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="4">
+      <c r="I278" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8223,10 +8271,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8270,28 +8318,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8316,28 +8364,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8396,10 +8444,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="4" t="s">
+      <c r="J286" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8443,28 +8491,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="4">
+      <c r="A288" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="4">
+      <c r="C288" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8489,28 +8537,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="4">
+      <c r="C290" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="4">
+      <c r="D290" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="4">
+      <c r="I290" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8627,10 +8675,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="4" t="s">
+      <c r="J294" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8674,28 +8722,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="4">
+      <c r="A296" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="4">
+      <c r="C296" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8720,28 +8768,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="4">
+      <c r="C298" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="4">
+      <c r="D298" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="4">
+      <c r="I298" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8858,10 +8906,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="4" t="s">
+      <c r="J302" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8905,28 +8953,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="4">
+      <c r="A304" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="4">
+      <c r="B304" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="4">
+      <c r="C304" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="4">
+      <c r="E304" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="4">
+      <c r="F304" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="4">
+      <c r="G304" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="4">
+      <c r="H304" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8951,28 +8999,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="4">
+      <c r="C306" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="4">
+      <c r="D306" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="4">
+      <c r="I306" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9031,10 +9079,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="4" t="s">
+      <c r="J308" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9078,28 +9126,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="4">
+      <c r="A310" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="4">
+      <c r="B310" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="4">
+      <c r="C310" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="4">
+      <c r="E310" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="4">
+      <c r="F310" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="4">
+      <c r="G310" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="4">
+      <c r="H310" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9124,28 +9172,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="4">
+      <c r="C312" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="4">
+      <c r="D312" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="4">
+      <c r="I312" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9204,10 +9252,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="4" t="s">
+      <c r="J314" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9251,28 +9299,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="4">
+      <c r="A316" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="4">
+      <c r="B316" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="4">
+      <c r="C316" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="4">
+      <c r="E316" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="4">
+      <c r="F316" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="4">
+      <c r="G316" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="4">
+      <c r="H316" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9297,28 +9345,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="4">
+      <c r="B318" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="4">
+      <c r="C318" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="4">
+      <c r="D318" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="4">
+      <c r="E318" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="4">
+      <c r="F318" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="4">
+      <c r="G318" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="4">
+      <c r="H318" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="4">
+      <c r="I318" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9406,10 +9454,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="4" t="s">
+      <c r="J321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9453,28 +9501,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="4">
+      <c r="A323" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="4">
+      <c r="C323" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9499,28 +9547,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="4">
+      <c r="C325" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="4">
+      <c r="D325" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="4">
+      <c r="I325" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9637,10 +9685,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9684,28 +9732,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9730,28 +9778,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9839,10 +9887,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="4" t="s">
+      <c r="J336" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10344" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12930" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="12">
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -739,10 +757,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="12" t="s">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -786,28 +804,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="12">
+      <c r="A21" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="12">
+      <c r="B21" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="12">
+      <c r="C21" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="12">
+      <c r="F21" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="12">
+      <c r="G21" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="12">
+      <c r="H21" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -832,28 +850,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="12">
+      <c r="B23" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="12">
+      <c r="C23" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="12">
+      <c r="F23" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="12">
+      <c r="G23" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="12">
+      <c r="H23" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="12">
+      <c r="I23" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -970,10 +988,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -1017,28 +1035,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="12">
+      <c r="A29" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="12">
+      <c r="B29" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="12">
+      <c r="C29" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="12">
+      <c r="F29" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="12">
+      <c r="H29" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1063,28 +1081,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="12">
+      <c r="C31" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="12">
+      <c r="I31" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1143,10 +1161,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="12" t="s">
+      <c r="J33" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1190,28 +1208,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="12">
+      <c r="A35" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="12">
+      <c r="C35" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1236,28 +1254,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="12">
+      <c r="C37" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="12">
+      <c r="D37" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="12">
+      <c r="I37" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1334,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1363,28 +1381,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="12">
+      <c r="A41" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="12">
+      <c r="B41" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="12">
+      <c r="C41" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="12">
+      <c r="E41" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="12">
+      <c r="F41" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="12">
+      <c r="H41" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1427,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="12">
+      <c r="I43" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1594,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1623,28 +1641,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1687,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1854,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1883,28 +1901,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1947,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2067,10 +2085,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="12" t="s">
+      <c r="J65" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2114,28 +2132,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="12">
+      <c r="A67" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="12">
+      <c r="C67" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2160,28 +2178,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="12">
+      <c r="B69" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="12">
+      <c r="C69" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="12">
+      <c r="D69" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="12">
+      <c r="E69" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="12">
+      <c r="F69" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="12">
+      <c r="G69" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="12">
+      <c r="H69" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="12">
+      <c r="I69" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2240,10 +2258,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="12" t="s">
+      <c r="J71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2287,28 +2305,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="12">
+      <c r="C73" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2333,28 +2351,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2431,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="12" t="s">
+      <c r="J77" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2460,28 +2478,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="12">
+      <c r="A79" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="12">
+      <c r="C79" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2524,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="12">
+      <c r="C81" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="12">
+      <c r="D81" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="12">
+      <c r="I81" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2673,10 +2691,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="12" t="s">
+      <c r="J86" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2720,28 +2738,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="12">
+      <c r="A88" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="12">
+      <c r="B88" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="12">
+      <c r="C88" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="12">
+      <c r="E88" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="12">
+      <c r="F88" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="12">
+      <c r="G88" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="12">
+      <c r="H88" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2766,28 +2784,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="12">
+      <c r="C90" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="12">
+      <c r="D90" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="12">
+      <c r="I90" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2951,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2980,28 +2998,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3044,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3106,10 +3124,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="12" t="s">
+      <c r="J101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3153,28 +3171,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="A103" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="12">
+      <c r="C103" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3199,28 +3217,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="12">
+      <c r="I105" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3279,10 +3297,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="12" t="s">
+      <c r="J107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3326,28 +3344,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="12">
+      <c r="A109" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="12">
+      <c r="C109" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3372,28 +3390,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="12">
+      <c r="I111" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3510,10 +3528,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="12" t="s">
+      <c r="J115" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3557,28 +3575,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="12">
+      <c r="A117" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="12">
+      <c r="C117" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3603,28 +3621,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="12">
+      <c r="C119" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="12">
+      <c r="D119" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="12">
+      <c r="I119" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3712,10 +3730,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="12" t="s">
+      <c r="J122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3759,28 +3777,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="12">
+      <c r="A124" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="12">
+      <c r="C124" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3805,28 +3823,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="12">
+      <c r="I126" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4001,10 +4019,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K132" s="12" t="s">
+      <c r="J132" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4048,28 +4066,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="12">
+      <c r="A134" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="12">
+      <c r="B134" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s" s="12">
+      <c r="C134" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="12">
+      <c r="E134" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="12">
+      <c r="F134" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="12">
+      <c r="G134" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="12">
+      <c r="H134" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4094,28 +4112,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="12">
+      <c r="I136" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4174,10 +4192,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4221,28 +4239,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4267,28 +4285,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4347,10 +4365,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4394,28 +4412,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4440,28 +4458,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4520,10 +4538,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4567,28 +4585,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4613,28 +4631,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4722,10 +4740,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="12" t="s">
+      <c r="J157" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4769,28 +4787,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="12">
+      <c r="A159" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="12">
+      <c r="B159" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="12">
+      <c r="C159" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="12">
+      <c r="E159" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="12">
+      <c r="F159" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="12">
+      <c r="H159" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4815,28 +4833,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="12">
+      <c r="C161" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="12">
+      <c r="D161" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="12">
+      <c r="I161" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4895,10 +4913,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="12" t="s">
+      <c r="J163" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4942,28 +4960,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="12">
+      <c r="A165" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="12">
+      <c r="C165" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4988,28 +5006,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="12">
+      <c r="I167" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5115,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="12" t="s">
+      <c r="J170" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5144,28 +5162,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="12">
+      <c r="C172" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5208,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5270,10 +5288,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5317,28 +5335,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5363,28 +5381,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5443,10 +5461,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5490,28 +5508,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5536,28 +5554,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5616,10 +5634,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5663,28 +5681,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5709,28 +5727,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5818,10 +5836,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5865,28 +5883,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5911,28 +5929,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6049,10 +6067,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6096,28 +6114,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6142,28 +6160,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6222,10 +6240,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="12" t="s">
+      <c r="J209" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6269,28 +6287,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="12">
+      <c r="A211" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="12">
+      <c r="C211" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6315,28 +6333,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="12">
+      <c r="B213" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="12">
+      <c r="C213" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="12">
+      <c r="D213" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="12">
+      <c r="E213" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="12">
+      <c r="F213" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="12">
+      <c r="G213" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="12">
+      <c r="H213" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="12">
+      <c r="I213" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6453,10 +6471,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6500,28 +6518,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6546,28 +6564,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6626,10 +6644,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6673,28 +6691,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6719,28 +6737,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6915,10 +6933,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="12" t="s">
+      <c r="J233" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6962,28 +6980,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="12">
+      <c r="A235" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="12">
+      <c r="C235" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7008,28 +7026,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="12">
+      <c r="C237" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="12">
+      <c r="D237" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="12">
+      <c r="I237" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7088,10 +7106,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="12" t="s">
+      <c r="J239" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7135,28 +7153,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="12">
+      <c r="A241" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="12">
+      <c r="C241" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7181,28 +7199,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="12">
+      <c r="C243" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="12">
+      <c r="D243" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="12">
+      <c r="I243" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7290,10 +7308,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="12" t="s">
+      <c r="J246" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7337,28 +7355,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="12">
+      <c r="A248" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="12">
+      <c r="C248" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7383,28 +7401,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="12">
+      <c r="C250" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="12">
+      <c r="D250" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="12">
+      <c r="I250" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7492,10 +7510,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="12" t="s">
+      <c r="J253" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7539,28 +7557,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="12">
+      <c r="A255" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="12">
+      <c r="C255" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7585,28 +7603,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="12">
+      <c r="C257" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="12">
+      <c r="D257" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="12">
+      <c r="I257" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7723,10 +7741,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7770,28 +7788,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="12">
+      <c r="A263" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="12">
+      <c r="C263" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="12">
+      <c r="E263" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="12">
+      <c r="F263" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="12">
+      <c r="G263" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="12">
+      <c r="H263" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7816,28 +7834,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="12">
+      <c r="C265" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="12">
+      <c r="D265" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="12">
+      <c r="I265" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7925,10 +7943,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="12" t="s">
+      <c r="J268" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7972,28 +7990,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="12">
+      <c r="A270" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="12">
+      <c r="C270" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8018,28 +8036,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="12">
+      <c r="C272" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="12">
+      <c r="D272" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="12">
+      <c r="I272" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8098,10 +8116,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="12" t="s">
+      <c r="J274" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8145,28 +8163,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="12">
+      <c r="A276" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="12">
+      <c r="C276" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8191,28 +8209,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="12">
+      <c r="B278" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="12">
+      <c r="C278" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="12">
+      <c r="D278" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="12">
+      <c r="E278" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="12">
+      <c r="F278" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="12">
+      <c r="G278" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="12">
+      <c r="H278" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="12">
+      <c r="I278" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8271,10 +8289,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8318,28 +8336,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8364,28 +8382,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8444,10 +8462,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="12" t="s">
+      <c r="J286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8491,28 +8509,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="12">
+      <c r="A288" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="12">
+      <c r="C288" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8537,28 +8555,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="12">
+      <c r="C290" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="12">
+      <c r="D290" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="12">
+      <c r="I290" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8675,10 +8693,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="12" t="s">
+      <c r="J294" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8722,28 +8740,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="12">
+      <c r="A296" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="12">
+      <c r="C296" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8768,28 +8786,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="12">
+      <c r="C298" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="12">
+      <c r="D298" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="12">
+      <c r="I298" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8906,10 +8924,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="12" t="s">
+      <c r="J302" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8953,28 +8971,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="12">
+      <c r="A304" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="12">
+      <c r="B304" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="12">
+      <c r="C304" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="12">
+      <c r="E304" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="12">
+      <c r="F304" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="12">
+      <c r="G304" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="12">
+      <c r="H304" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8999,28 +9017,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="12">
+      <c r="C306" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="12">
+      <c r="D306" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="12">
+      <c r="I306" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9079,10 +9097,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="12" t="s">
+      <c r="J308" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9126,28 +9144,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="12">
+      <c r="A310" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="12">
+      <c r="B310" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="12">
+      <c r="C310" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="12">
+      <c r="E310" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="12">
+      <c r="F310" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="12">
+      <c r="G310" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="12">
+      <c r="H310" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9172,28 +9190,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="12">
+      <c r="C312" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="12">
+      <c r="D312" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="12">
+      <c r="I312" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9252,10 +9270,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="12" t="s">
+      <c r="J314" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9299,28 +9317,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="12">
+      <c r="A316" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="12">
+      <c r="B316" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="12">
+      <c r="C316" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="12">
+      <c r="E316" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="12">
+      <c r="F316" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="12">
+      <c r="G316" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="12">
+      <c r="H316" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9345,28 +9363,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="12">
+      <c r="B318" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="12">
+      <c r="C318" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="12">
+      <c r="D318" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="12">
+      <c r="E318" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="12">
+      <c r="F318" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="12">
+      <c r="G318" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="12">
+      <c r="H318" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="12">
+      <c r="I318" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9454,10 +9472,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="12" t="s">
+      <c r="J321" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9501,28 +9519,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="12">
+      <c r="A323" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="12">
+      <c r="C323" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9547,28 +9565,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="12">
+      <c r="C325" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="12">
+      <c r="D325" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="12">
+      <c r="I325" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9685,10 +9703,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9732,28 +9750,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9778,28 +9796,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9887,10 +9905,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="12" t="s">
+      <c r="J336" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
